--- a/odk_remake/form_data/test/simple.xlsx
+++ b/odk_remake/form_data/test/simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Ariel\CSE482\odk_remake\form_data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB43C5AF-DD00-4B88-85AE-A9DE62D16872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B4590-B8F7-408F-AD38-5D46B5498CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38040" yWindow="3045" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>video</t>
-  </si>
-  <si>
-    <t>integer</t>
   </si>
   <si>
     <t>age</t>
@@ -741,6 +738,12 @@
   </si>
   <si>
     <t>${graduate_year} = 2024</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>select_one abcd_icon</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1337,17 +1340,17 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1375,17 +1378,17 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1413,20 +1416,20 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1453,20 +1456,20 @@
     </row>
     <row r="5" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -11048,7 +11051,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:AB1 A14:AB1001 A4:AB12 A2:E3">
+  <conditionalFormatting sqref="A1:AB1 A2:E3 A4:AB12 A14:AB1001">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>OR($A1="begin group", $A1="begin_group", $A1="end group", $A1="end_group")</formula>
     </cfRule>
@@ -11056,20 +11059,20 @@
       <formula>OR($A1="begin repeat", $A1="begin_repeat", $A1="end repeat", $A1="end_repeat")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:AB3">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>OR(#REF!="begin group", #REF!="begin_group", #REF!="end group", #REF!="end_group")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>OR(#REF!="begin repeat", #REF!="begin_repeat", #REF!="end repeat", #REF!="end_repeat")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F13:AB13">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>OR($A2="begin group", $A2="begin_group", $A2="end group", $A2="end_group")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>OR($A2="begin repeat", $A2="begin_repeat", $A2="end repeat", $A2="end_repeat")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:AB3">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>OR(#REF!="begin group", #REF!="begin_group", #REF!="end group", #REF!="end_group")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>OR(#REF!="begin repeat", #REF!="begin_repeat", #REF!="end repeat", #REF!="end_repeat")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11111,7 +11114,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -11147,16 +11150,16 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -11183,16 +11186,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -11219,16 +11222,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -11255,16 +11258,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -18132,22 +18135,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -18175,7 +18178,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20240422223217</v>
+        <v>20240427140610</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>

--- a/odk_remake/form_data/test/simple.xlsx
+++ b/odk_remake/form_data/test/simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Ariel\CSE482\odk_remake\form_data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B4590-B8F7-408F-AD38-5D46B5498CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE1BF7-56EF-472C-A8A2-A92403B885CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38040" yWindow="3045" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="5355" windowWidth="28800" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>type</t>
   </si>
@@ -641,13 +641,7 @@
     <t>video</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>email</t>
   </si>
   <si>
     <t>What is your email?</t>
@@ -665,16 +659,10 @@
     <t>a</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>a.jpg</t>
   </si>
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>b.jpg</t>
@@ -683,16 +671,10 @@
     <t>c</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>c.jpg</t>
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>d.jpg</t>
@@ -725,12 +707,6 @@
     <t>${age} &gt; 18</t>
   </si>
   <si>
-    <t>graduation_year</t>
-  </si>
-  <si>
-    <t>post_grad_plans</t>
-  </si>
-  <si>
     <t>What do you plan to do after you graduate?</t>
   </si>
   <si>
@@ -744,6 +720,60 @@
   </si>
   <si>
     <t>select_one abcd_icon</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Graduation Year</t>
+  </si>
+  <si>
+    <t>Post Graduation Plans</t>
+  </si>
+  <si>
+    <t>select_multiple box_icon</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>What type of compenstation are you looking forwards to?</t>
+  </si>
+  <si>
+    <t>box_icon</t>
+  </si>
+  <si>
+    <t>choice1</t>
+  </si>
+  <si>
+    <t>choice3</t>
+  </si>
+  <si>
+    <t>choice2</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Free food</t>
+  </si>
+  <si>
+    <t>Graduate school</t>
+  </si>
+  <si>
+    <t>Software developer</t>
+  </si>
+  <si>
+    <t>Teaching position</t>
+  </si>
+  <si>
+    <t>Go home to my mom</t>
   </si>
 </sst>
 </file>
@@ -1248,16 +1278,16 @@
   </sheetPr>
   <dimension ref="A1:AB1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -1340,17 +1370,17 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1378,17 +1408,17 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1416,20 +1446,20 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1456,20 +1486,20 @@
     </row>
     <row r="5" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>48</v>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1495,11 +1525,19 @@
       <c r="AB5" s="6"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1526,7 +1564,7 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -11097,11 +11135,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11114,7 +11152,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -11150,16 +11188,16 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -11186,16 +11224,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -11222,16 +11260,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -11258,16 +11296,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -11293,9 +11331,15 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -11321,9 +11365,15 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -11349,9 +11399,15 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -18135,22 +18191,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -18178,7 +18234,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20240427140610</v>
+        <v>20240502014053</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
